--- a/JABINES, MARIA SHELLY.xlsx
+++ b/JABINES, MARIA SHELLY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A9BE1-C798-43B2-AC59-5D5ECBB6E4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C89813-BAFE-41EB-BB69-01096FEB580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -33,20 +33,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,6 +233,9 @@
   </si>
   <si>
     <t>12/26-29/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -628,14 +623,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -645,9 +643,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2614,7 +2609,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2964,9 +2959,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2996,14 +2991,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3014,14 +3009,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3034,16 +3029,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3069,18 +3064,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3127,7 +3122,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3137,7 +3132,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>73.75</v>
+        <v>76.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4433,15 +4428,19 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>44896</v>
+      </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
@@ -4449,7 +4448,9 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
+      <c r="A75" s="48" t="s">
+        <v>65</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4465,15 +4466,19 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>44927</v>
+      </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -5410,17 +5415,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{F9DC3F43-9D2E-4E86-941D-4253A288EA8A}">
@@ -5453,12 +5458,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5488,14 +5493,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5506,14 +5511,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5526,16 +5531,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5561,18 +5566,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5629,7 +5634,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>116.80000000000001</v>
+        <v>115.80000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6566,34 +6571,38 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="39">
-        <v>4</v>
-      </c>
+      <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H52" s="39"/>
+      <c r="H52" s="39">
+        <v>1</v>
+      </c>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20" t="s">
-        <v>64</v>
+      <c r="K52" s="49">
+        <v>44873</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="39">
+        <v>4</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -6603,10 +6612,14 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
+      <c r="A54" s="48" t="s">
+        <v>65</v>
+      </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
@@ -6622,7 +6635,9 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
+      <c r="A55" s="40">
+        <v>44927</v>
+      </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
@@ -7822,20 +7837,36 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
